--- a/12. Gráficos/Gráficos - Exercícios Gráficos (Parte 1).xlsx
+++ b/12. Gráficos/Gráficos - Exercícios Gráficos (Parte 1).xlsx
@@ -8,22 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kiko\Documents\Projetos Programação\Especializacao-em-Analise-de-Dados\12. Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CEE985-9E41-465C-BDE8-F8F422B10946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A53E408-1AA6-4FD2-81B5-386A6670ADEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{9BF72369-E499-42EB-B6BF-470729BF614A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{9BF72369-E499-42EB-B6BF-470729BF614A}"/>
   </bookViews>
   <sheets>
     <sheet name="Início" sheetId="4" r:id="rId1"/>
     <sheet name="Linhas e Pizza" sheetId="8" r:id="rId2"/>
     <sheet name="Colunas, Barras e Árvore" sheetId="7" r:id="rId3"/>
-    <sheet name="Cascata e Funil" sheetId="6" r:id="rId4"/>
-    <sheet name="Radar e Dispersão" sheetId="9" r:id="rId5"/>
+    <sheet name="Radar e Dispersão" sheetId="9" r:id="rId4"/>
+    <sheet name="Cascata e Funil" sheetId="6" r:id="rId5"/>
     <sheet name="Explosão Solar" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Colunas, Barras e Árvore'!$A$18:$A$23</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Colunas, Barras e Árvore'!$B$17</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Explosão Solar'!$A$5:$C$26</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Explosão Solar'!$D$3:$D$4</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Explosão Solar'!$D$5:$D$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Colunas, Barras e Árvore'!$B$18:$B$23</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Cascata e Funil'!$A$4</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Cascata e Funil'!$B$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Cascata e Funil'!$B$4:$F$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Cascata e Funil'!$C$3:$F$3</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Cascata e Funil'!$C$4:$F$4</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">'Cascata e Funil'!$B$13:$E$13</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">'Cascata e Funil'!$A$13</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">'Cascata e Funil'!$B$12:$E$12</definedName>
     <definedName name="Resultado" localSheetId="0">#REF!</definedName>
     <definedName name="Resultado">'[1]Inserir Comentários'!#REF!</definedName>
   </definedNames>
@@ -2173,6 +2187,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="168147727"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
@@ -2337,6 +2352,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B22C-436F-92D8-FA570E0BC465}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2352,6 +2372,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B22C-436F-92D8-FA570E0BC465}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2367,6 +2392,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B22C-436F-92D8-FA570E0BC465}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2382,6 +2412,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-B22C-436F-92D8-FA570E0BC465}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2397,6 +2432,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-B22C-436F-92D8-FA570E0BC465}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2412,6 +2452,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-B22C-436F-92D8-FA570E0BC465}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -4269,7 +4314,1209 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11691469816272966"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.84419641294838144"/>
+          <c:h val="0.89814814814814814"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Colunas, Barras e Árvore'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vendas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Colunas, Barras e Árvore'!$A$18:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Julia</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Priscila</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Felipe</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bento</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Marcelo</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Vanessa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Colunas, Barras e Árvore'!$B$18:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7973</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9455</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9ADA-4AB6-8E7C-854045E01D2F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2131099184"/>
+        <c:axId val="2131094384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2131099184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2131094384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2131094384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2131099184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'Radar e Dispersão'!$B$3</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Luana</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Radar e Dispersão'!$A$6:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>História</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Geografia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Matemática</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Física</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Química</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Biologia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Português</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Radar e Dispersão'!$B$6:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4957-4EBB-9291-35481BAEAB2A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="24445504"/>
+        <c:axId val="24446464"/>
+      </c:radarChart>
+      <c:catAx>
+        <c:axId val="24445504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24446464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="24446464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="24445504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Radar e Dispersão'!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Radar e Dispersão'!$B$21:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Radar e Dispersão'!$C$21:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F98F-4E32-B8A5-A9D8BB78ECBC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2124714960"/>
+        <c:axId val="2130978288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2124714960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130978288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2130978288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2124714960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="treemap" uniqueId="{1DE157FA-B71B-45B9-91A0-30F749E6915E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:v>Vendas</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:numFmt formatCode="R$ #.##0" sourceLinked="0"/>
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+            <cx:separator>
+</cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:parentLabelLayout val="overlapping"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="waterfall" uniqueId="{EE720BFF-DBA1-4C3A-89F0-D23C4243EF00}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.3</cx:f>
+              <cx:v>Vendas</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="outEnd">
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:subtotals/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f dir="row">_xlchart.v2.9</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f dir="row">_xlchart.v2.10</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="funnel" uniqueId="{96B0E177-DAB8-496E-9840-99ABEA33C199}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v2.8</cx:f>
+              <cx:v>Clientes que não responderam</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="1">
+        <cx:catScaling gapWidth="0.0599999987"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:strDim>
+      <cx:numDim type="size">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="sunburst" uniqueId="{E1D54988-C5AA-496F-9F63-BF0AF502AA08}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>Valor</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataLabels pos="ctr">
+            <cx:numFmt formatCode="R$ #.##0,00" sourceLinked="0"/>
+            <cx:visibility seriesName="0" categoryName="1" value="1"/>
+            <cx:separator>
+</cx:separator>
+          </cx:dataLabels>
+          <cx:dataId val="0"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4469,6 +5716,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4985,6 +6392,1532 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="395">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="419">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="381">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -7011,6 +9944,2054 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="410">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1">
+          <a:lumMod val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="317">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9097,8 +14078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3387970" y="4319954"/>
-          <a:ext cx="567037" cy="530942"/>
+          <a:off x="3386212" y="4346917"/>
+          <a:ext cx="567037" cy="534459"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -9221,10 +14202,792 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>845820</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Gráfico 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A778B447-FABD-93B4-79A2-B294081EA5B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="13" name="Gráfico 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCD4803-333A-0151-D457-4E0DDDA77B43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4777740" y="4255770"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>744208</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>151477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CaixaDeTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5F01DC-E15E-4DD8-90BD-07BE1EA6EE94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3557746" y="929172"/>
+          <a:ext cx="2989592" cy="494259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Represente os valores ao lado </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>em um gráfico de radar</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1200" b="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="bg1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>404447</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>181707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57084</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>167526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Elipse 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B43CAA-E685-4365-BD2C-8D3AC575C97D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3217985" y="908538"/>
+          <a:ext cx="567037" cy="530942"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>761793</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>8911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>139754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97ED904D-84E3-45AC-9D49-E4B3F5357CDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3575331" y="1644280"/>
+          <a:ext cx="2983730" cy="494259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>O título do gráfico deve ser sempre o </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>nome do aluno selecionado na célula B3</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1200" b="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="bg1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>422032</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>169984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>74669</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>155803</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Elipse 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8243B2-2EDC-41F7-86B2-63D9E497B5D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3235570" y="1623646"/>
+          <a:ext cx="567037" cy="530942"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>603529</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>90972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117228</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>40108</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CaixaDeTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589D4F65-BAD7-48BA-BC28-5BAFE980C0C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4331467" y="3543418"/>
+          <a:ext cx="2989592" cy="494259"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="19050" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Represente os valores ao lado </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>em um gráfico de dispersão</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1200" b="0" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="bg1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>263768</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>70338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>830805</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>56157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Elipse 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB1CE7D-6AD8-45F1-9E40-0D112D03A3B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3991706" y="3522784"/>
+          <a:ext cx="567037" cy="530942"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>196948</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>378655</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17585</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF6364E5-706F-5035-BDED-1819D3715A05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5550066-F257-16CF-E8BF-4D694CD21A5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -9656,600 +15419,160 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>744208</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>20634</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8206</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>151477</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>185224</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>17585</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CaixaDeTexto 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5F01DC-E15E-4DD8-90BD-07BE1EA6EE94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3557746" y="929172"/>
-          <a:ext cx="2989592" cy="494259"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85B641FF-37D7-2AE3-A8D8-572AFBEBA908}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7209106" y="0"/>
+              <a:ext cx="4566138" cy="2760785"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:prstClr val="green"/>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="bg1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Represente os valores ao lado </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="bg1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>em um gráfico de radar</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1200" b="0" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="bg1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>404447</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>181707</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>57084</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>167526</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Elipse 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B43CAA-E685-4365-BD2C-8D3AC575C97D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3217985" y="908538"/>
-          <a:ext cx="567037" cy="530942"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1800" b="1">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" Requires="cx2">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Gráfico 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A10A4C5-3AEA-06C9-5696-7B8A3BE7461B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7216140" y="2807970"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:prstClr val="green"/>
               </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>761793</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>8911</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>87923</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>139754</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CaixaDeTexto 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97ED904D-84E3-45AC-9D49-E4B3F5357CDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3575331" y="1644280"/>
-          <a:ext cx="2983730" cy="494259"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="bg1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>O título do gráfico deve ser sempre o </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="bg1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>nome do aluno selecionado na célula B3</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1200" b="0" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="bg1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>422032</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>169984</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>74669</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>155803</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Elipse 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8243B2-2EDC-41F7-86B2-63D9E497B5D0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3235570" y="1623646"/>
-          <a:ext cx="567037" cy="530942"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>603529</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>90972</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>117228</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>40108</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CaixaDeTexto 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589D4F65-BAD7-48BA-BC28-5BAFE980C0C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4331467" y="3543418"/>
-          <a:ext cx="2989592" cy="494259"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="19050" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="bg1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Represente os valores ao lado </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1200" b="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                  <a:schemeClr val="bg1">
-                    <a:alpha val="40000"/>
-                  </a:schemeClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>em um gráfico de dispersão</a:t>
-          </a:r>
-          <a:endParaRPr lang="pt-BR" sz="1200" b="0" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="C00000"/>
-            </a:solidFill>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:schemeClr val="bg1">
-                  <a:alpha val="40000"/>
-                </a:schemeClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>263768</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>70338</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>830805</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>56157</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Elipse 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB1CE7D-6AD8-45F1-9E40-0D112D03A3B1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3991706" y="3522784"/>
-          <a:ext cx="567037" cy="530942"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:schemeClr val="tx2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="pt-BR" sz="1800" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10449,6 +15772,84 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>102578</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728603FE-EEF9-F74B-72B4-3CD77A448CDB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4743158" y="341141"/>
+              <a:ext cx="7593622" cy="4428979"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11173,8 +16574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8805B4CF-3379-499B-816B-466F7F0359EB}">
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11646,132 +17047,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E9E65F-ABA3-41D6-BB7D-E1C9B639D9AD}">
-  <dimension ref="A1:O13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14">
-        <v>2020</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="16"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="17"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="18">
-        <v>30000</v>
-      </c>
-      <c r="C4" s="18">
-        <v>16960</v>
-      </c>
-      <c r="D4" s="18">
-        <v>21486</v>
-      </c>
-      <c r="E4" s="18">
-        <v>-15368</v>
-      </c>
-      <c r="F4" s="18">
-        <v>17612</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="11">
-        <v>100000</v>
-      </c>
-      <c r="C13" s="11">
-        <v>77385</v>
-      </c>
-      <c r="D13" s="11">
-        <v>52669</v>
-      </c>
-      <c r="E13" s="11">
-        <v>36856</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89C4F17-7D44-4AB0-BA3A-5E965382F01C}">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -11790,7 +17071,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K3" s="34" t="s">
         <v>85</v>
@@ -11875,7 +17156,7 @@
       </c>
       <c r="B6" s="48">
         <f>VLOOKUP($B$3,$K$3:$R$8,2,0)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K6" s="35" t="s">
         <v>81</v>
@@ -11908,7 +17189,7 @@
       </c>
       <c r="B7" s="49">
         <f>VLOOKUP($B$3,$K$3:$R$8,3,0)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K7" s="35" t="s">
         <v>82</v>
@@ -11941,7 +17222,7 @@
       </c>
       <c r="B8" s="49">
         <f>VLOOKUP($B$3,$K$3:$R$8,4,0)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K8" s="36" t="s">
         <v>83</v>
@@ -11974,7 +17255,7 @@
       </c>
       <c r="B9" s="49">
         <f>VLOOKUP($B$3,$K$3:$R$8,5,0)</f>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -11983,7 +17264,7 @@
       </c>
       <c r="B10" s="49">
         <f>VLOOKUP($B$3,$K$3:$R$8,6,0)</f>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
@@ -12138,11 +17419,137 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81E9E65F-ABA3-41D6-BB7D-E1C9B639D9AD}">
+  <dimension ref="A1:O13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>2020</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="17"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18">
+        <v>30000</v>
+      </c>
+      <c r="C4" s="18">
+        <v>16960</v>
+      </c>
+      <c r="D4" s="18">
+        <v>21486</v>
+      </c>
+      <c r="E4" s="18">
+        <v>-15368</v>
+      </c>
+      <c r="F4" s="18">
+        <v>17612</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="11">
+        <v>100000</v>
+      </c>
+      <c r="C13" s="11">
+        <v>77385</v>
+      </c>
+      <c r="D13" s="11">
+        <v>52669</v>
+      </c>
+      <c r="E13" s="11">
+        <v>36856</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C15097-20C1-4D3B-BCDD-5F23E7CBA762}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
